--- a/Jogos_da_Semana_FlashScore_2024-09-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-21.xlsx
@@ -6207,40 +6207,40 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I32" t="n">
         <v>2.88</v>
       </c>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
         <v>1.83</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S32" t="n">
         <v>1.67</v>
@@ -6258,10 +6258,10 @@
         <v>6</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
         <v>29</v>
@@ -6270,13 +6270,13 @@
         <v>29</v>
       </c>
       <c r="AB32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC32" t="n">
         <v>5.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE32" t="n">
         <v>21</v>
@@ -6288,19 +6288,19 @@
         <v>501</v>
       </c>
       <c r="AH32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ32" t="n">
         <v>12</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM32" t="n">
         <v>51</v>
@@ -6309,25 +6309,25 @@
         <v>4.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP32" t="n">
         <v>34</v>
       </c>
       <c r="AQ32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS32" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT32" t="n">
         <v>2.1</v>
       </c>
       <c r="AU32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV32" t="n">
         <v>81</v>
@@ -6336,7 +6336,7 @@
         <v>126</v>
       </c>
       <c r="AX32" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY32" t="n">
         <v>19</v>
@@ -8573,40 +8573,40 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H45" t="n">
         <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K45" t="n">
         <v>2.1</v>
       </c>
       <c r="L45" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R45" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S45" t="n">
         <v>1.44</v>
@@ -8621,7 +8621,7 @@
         <v>1.83</v>
       </c>
       <c r="W45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X45" t="n">
         <v>10</v>
@@ -8645,7 +8645,7 @@
         <v>6.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF45" t="n">
         <v>51</v>
@@ -8660,16 +8660,16 @@
         <v>15</v>
       </c>
       <c r="AJ45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK45" t="n">
         <v>34</v>
       </c>
       <c r="AL45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN45" t="n">
         <v>4.33</v>
@@ -8711,7 +8711,7 @@
         <v>29</v>
       </c>
       <c r="BA45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB45" t="n">
         <v>81</v>
@@ -9301,22 +9301,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H49" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J49" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K49" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.08</v>
@@ -9352,16 +9352,16 @@
         <v>7.5</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y49" t="n">
         <v>10</v>
       </c>
       <c r="Z49" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA49" t="n">
         <v>23</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>21</v>
       </c>
       <c r="AB49" t="n">
         <v>34</v>
@@ -9382,7 +9382,7 @@
         <v>351</v>
       </c>
       <c r="AH49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI49" t="n">
         <v>13</v>
@@ -9394,13 +9394,13 @@
         <v>29</v>
       </c>
       <c r="AL49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN49" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO49" t="n">
         <v>15</v>
@@ -9412,7 +9412,7 @@
         <v>51</v>
       </c>
       <c r="AR49" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS49" t="n">
         <v>201</v>
@@ -9424,7 +9424,7 @@
         <v>8.5</v>
       </c>
       <c r="AV49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW49" t="n">
         <v>126</v>
@@ -11139,22 +11139,22 @@
         <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O59" t="n">
         <v>1.5</v>
       </c>
       <c r="P59" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R59" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S59" t="n">
         <v>1.57</v>
@@ -11166,7 +11166,7 @@
         <v>2.25</v>
       </c>
       <c r="V59" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W59" t="n">
         <v>5.5</v>
@@ -11303,40 +11303,40 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="J60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L60" t="n">
         <v>3.4</v>
       </c>
-      <c r="K60" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.75</v>
-      </c>
       <c r="M60" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N60" t="n">
         <v>6.5</v>
       </c>
       <c r="O60" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P60" t="n">
         <v>2.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R60" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S60" t="n">
         <v>1.57</v>
@@ -11348,22 +11348,22 @@
         <v>2.1</v>
       </c>
       <c r="V60" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W60" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X60" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA60" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB60" t="n">
         <v>41</v>
@@ -11384,40 +11384,40 @@
         <v>900</v>
       </c>
       <c r="AH60" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL60" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM60" t="n">
         <v>41</v>
       </c>
       <c r="AN60" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO60" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ60" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR60" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS60" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT60" t="n">
         <v>2.25</v>
@@ -11432,22 +11432,22 @@
         <v>126</v>
       </c>
       <c r="AX60" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AY60" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ60" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA60" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB60" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC60" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD60" t="n">
         <v>126</v>
@@ -13487,13 +13487,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H72" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I72" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J72" t="n">
         <v>3.4</v>
@@ -13502,7 +13502,7 @@
         <v>2.1</v>
       </c>
       <c r="L72" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M72" t="n">
         <v>1.06</v>
@@ -13517,10 +13517,10 @@
         <v>3.25</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R72" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S72" t="n">
         <v>1.44</v>
@@ -13535,16 +13535,16 @@
         <v>1.83</v>
       </c>
       <c r="W72" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X72" t="n">
         <v>13</v>
       </c>
       <c r="Y72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA72" t="n">
         <v>23</v>
@@ -13553,7 +13553,7 @@
         <v>34</v>
       </c>
       <c r="AC72" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD72" t="n">
         <v>6.5</v>
@@ -13565,7 +13565,7 @@
         <v>51</v>
       </c>
       <c r="AG72" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH72" t="n">
         <v>8</v>
@@ -13577,13 +13577,13 @@
         <v>10</v>
       </c>
       <c r="AK72" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL72" t="n">
         <v>21</v>
       </c>
       <c r="AM72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN72" t="n">
         <v>4.75</v>
@@ -13598,7 +13598,7 @@
         <v>51</v>
       </c>
       <c r="AR72" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS72" t="n">
         <v>201</v>
@@ -13622,7 +13622,7 @@
         <v>15</v>
       </c>
       <c r="AZ72" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA72" t="n">
         <v>51</v>
@@ -13631,7 +13631,7 @@
         <v>67</v>
       </c>
       <c r="BC72" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD72" t="n">
         <v>51</v>
@@ -25681,28 +25681,28 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H139" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I139" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J139" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K139" t="n">
         <v>2.3</v>
       </c>
       <c r="L139" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M139" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N139" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O139" t="n">
         <v>1.25</v>
@@ -25738,13 +25738,13 @@
         <v>8.5</v>
       </c>
       <c r="Z139" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA139" t="n">
         <v>13</v>
       </c>
       <c r="AB139" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC139" t="n">
         <v>11</v>
@@ -25759,16 +25759,16 @@
         <v>51</v>
       </c>
       <c r="AG139" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH139" t="n">
         <v>15</v>
       </c>
       <c r="AI139" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ139" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK139" t="n">
         <v>51</v>
@@ -25780,10 +25780,10 @@
         <v>41</v>
       </c>
       <c r="AN139" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO139" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP139" t="n">
         <v>19</v>
@@ -25792,7 +25792,7 @@
         <v>26</v>
       </c>
       <c r="AR139" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS139" t="n">
         <v>126</v>
@@ -25801,7 +25801,7 @@
         <v>3</v>
       </c>
       <c r="AU139" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV139" t="n">
         <v>51</v>
@@ -25810,22 +25810,22 @@
         <v>126</v>
       </c>
       <c r="AX139" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY139" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ139" t="n">
         <v>29</v>
       </c>
-      <c r="AZ139" t="n">
-        <v>34</v>
-      </c>
       <c r="BA139" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB139" t="n">
         <v>101</v>
       </c>
       <c r="BC139" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD139" t="n">
         <v>126</v>
@@ -25863,22 +25863,22 @@
         </is>
       </c>
       <c r="G140" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H140" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2</v>
+      </c>
+      <c r="J140" t="n">
         <v>4</v>
-      </c>
-      <c r="H140" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J140" t="n">
-        <v>4.33</v>
       </c>
       <c r="K140" t="n">
         <v>2.2</v>
       </c>
       <c r="L140" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M140" t="n">
         <v>1.05</v>
@@ -25914,7 +25914,7 @@
         <v>12</v>
       </c>
       <c r="X140" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y140" t="n">
         <v>13</v>
@@ -25947,7 +25947,7 @@
         <v>8</v>
       </c>
       <c r="AI140" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ140" t="n">
         <v>8.5</v>
@@ -25962,13 +25962,13 @@
         <v>23</v>
       </c>
       <c r="AN140" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO140" t="n">
         <v>21</v>
       </c>
       <c r="AP140" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ140" t="n">
         <v>67</v>
@@ -25977,13 +25977,13 @@
         <v>81</v>
       </c>
       <c r="AS140" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT140" t="n">
         <v>3</v>
       </c>
       <c r="AU140" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV140" t="n">
         <v>51</v>
@@ -25995,10 +25995,10 @@
         <v>4</v>
       </c>
       <c r="AY140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ140" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA140" t="n">
         <v>34</v>
@@ -26227,40 +26227,40 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="H142" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I142" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="J142" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K142" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L142" t="n">
         <v>3.15</v>
       </c>
       <c r="M142" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N142" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="O142" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P142" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R142" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S142" t="n">
         <v>1.42</v>
@@ -26269,16 +26269,16 @@
         <v>2.47</v>
       </c>
       <c r="U142" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V142" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W142" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X142" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y142" t="n">
         <v>9.75</v>
@@ -26293,10 +26293,10 @@
         <v>29</v>
       </c>
       <c r="AC142" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD142" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AE142" t="n">
         <v>13</v>
@@ -26308,70 +26308,70 @@
         <v>450</v>
       </c>
       <c r="AH142" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AI142" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ142" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK142" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL142" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM142" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN142" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX142" t="n">
         <v>4.55</v>
-      </c>
-      <c r="AO142" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP142" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ142" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR142" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS142" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT142" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU142" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV142" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW142" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX142" t="n">
-        <v>4.4</v>
       </c>
       <c r="AY142" t="n">
         <v>14</v>
       </c>
       <c r="AZ142" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA142" t="n">
         <v>60</v>
       </c>
       <c r="BB142" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BC142" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD142" t="n">
         <v>51</v>
@@ -28793,10 +28793,10 @@
         <v>2.4</v>
       </c>
       <c r="M156" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N156" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O156" t="n">
         <v>1.44</v>
@@ -28957,16 +28957,16 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J157" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J157" t="n">
-        <v>3.2</v>
       </c>
       <c r="K157" t="n">
         <v>2.05</v>
@@ -28999,10 +28999,10 @@
         <v>2.47</v>
       </c>
       <c r="U157" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V157" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W157" t="n">
         <v>7.5</v>
@@ -29011,7 +29011,7 @@
         <v>11</v>
       </c>
       <c r="Y157" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z157" t="n">
         <v>23</v>
@@ -29026,7 +29026,7 @@
         <v>8.5</v>
       </c>
       <c r="AD157" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE157" t="n">
         <v>15</v>
@@ -29038,10 +29038,10 @@
         <v>301</v>
       </c>
       <c r="AH157" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI157" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ157" t="n">
         <v>11</v>
@@ -29056,16 +29056,16 @@
         <v>34</v>
       </c>
       <c r="AN157" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO157" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP157" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ157" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR157" t="n">
         <v>67</v>
@@ -29074,10 +29074,10 @@
         <v>201</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU157" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV157" t="n">
         <v>51</v>
@@ -29086,7 +29086,7 @@
         <v>126</v>
       </c>
       <c r="AX157" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY157" t="n">
         <v>17</v>
@@ -29139,7 +29139,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H158" t="n">
         <v>3.8</v>
@@ -29148,7 +29148,7 @@
         <v>1.42</v>
       </c>
       <c r="J158" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K158" t="n">
         <v>2.2</v>
@@ -29157,10 +29157,10 @@
         <v>2</v>
       </c>
       <c r="M158" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N158" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O158" t="n">
         <v>1.33</v>
@@ -29169,10 +29169,10 @@
         <v>3.25</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R158" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S158" t="n">
         <v>1.44</v>
@@ -29193,7 +29193,7 @@
         <v>41</v>
       </c>
       <c r="Y158" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z158" t="n">
         <v>101</v>
@@ -29205,7 +29205,7 @@
         <v>67</v>
       </c>
       <c r="AC158" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD158" t="n">
         <v>8</v>
@@ -29232,7 +29232,7 @@
         <v>9</v>
       </c>
       <c r="AL158" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM158" t="n">
         <v>34</v>
@@ -29250,7 +29250,7 @@
         <v>201</v>
       </c>
       <c r="AR158" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AS158" t="n">
         <v>301</v>
@@ -39331,16 +39331,16 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H214" t="n">
         <v>4.33</v>
       </c>
       <c r="I214" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J214" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K214" t="n">
         <v>2.5</v>
@@ -39534,7 +39534,7 @@
         <v>1.04</v>
       </c>
       <c r="N215" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O215" t="n">
         <v>1.22</v>
@@ -39546,7 +39546,7 @@
         <v>1.8</v>
       </c>
       <c r="R215" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S215" t="n">
         <v>1.36</v>
@@ -39695,28 +39695,28 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="H216" t="n">
         <v>3.6</v>
       </c>
       <c r="I216" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="J216" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K216" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L216" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M216" t="n">
         <v>1.03</v>
       </c>
       <c r="N216" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O216" t="n">
         <v>1.17</v>
@@ -39725,10 +39725,10 @@
         <v>5</v>
       </c>
       <c r="Q216" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R216" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S216" t="n">
         <v>1.29</v>
@@ -39737,25 +39737,25 @@
         <v>3.5</v>
       </c>
       <c r="U216" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V216" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W216" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X216" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA216" t="n">
         <v>15</v>
-      </c>
-      <c r="Y216" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z216" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA216" t="n">
-        <v>17</v>
       </c>
       <c r="AB216" t="n">
         <v>21</v>
@@ -39764,13 +39764,13 @@
         <v>17</v>
       </c>
       <c r="AD216" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE216" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF216" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG216" t="n">
         <v>101</v>
@@ -39779,34 +39779,34 @@
         <v>13</v>
       </c>
       <c r="AI216" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP216" t="n">
         <v>17</v>
       </c>
-      <c r="AJ216" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK216" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL216" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM216" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN216" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO216" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP216" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ216" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR216" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS216" t="n">
         <v>101</v>
@@ -39821,19 +39821,19 @@
         <v>41</v>
       </c>
       <c r="AW216" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX216" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY216" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ216" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA216" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB216" t="n">
         <v>51</v>
@@ -39877,22 +39877,22 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H217" t="n">
         <v>3.5</v>
       </c>
       <c r="I217" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J217" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K217" t="n">
         <v>2.25</v>
       </c>
       <c r="L217" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M217" t="n">
         <v>1.04</v>
@@ -39925,10 +39925,10 @@
         <v>2.25</v>
       </c>
       <c r="W217" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X217" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y217" t="n">
         <v>11</v>
@@ -39970,7 +39970,7 @@
         <v>23</v>
       </c>
       <c r="AL217" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM217" t="n">
         <v>23</v>
@@ -39985,7 +39985,7 @@
         <v>21</v>
       </c>
       <c r="AQ217" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR217" t="n">
         <v>51</v>
@@ -40006,7 +40006,7 @@
         <v>451</v>
       </c>
       <c r="AX217" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY217" t="n">
         <v>13</v>
@@ -40059,13 +40059,13 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H218" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I218" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J218" t="n">
         <v>2.75</v>
@@ -40083,16 +40083,16 @@
         <v>19</v>
       </c>
       <c r="O218" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P218" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q218" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R218" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S218" t="n">
         <v>1.25</v>
@@ -40101,10 +40101,10 @@
         <v>3.75</v>
       </c>
       <c r="U218" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V218" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W218" t="n">
         <v>13</v>
@@ -40125,13 +40125,13 @@
         <v>19</v>
       </c>
       <c r="AC218" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD218" t="n">
         <v>8</v>
       </c>
       <c r="AE218" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF218" t="n">
         <v>29</v>
@@ -40140,7 +40140,7 @@
         <v>81</v>
       </c>
       <c r="AH218" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI218" t="n">
         <v>19</v>
@@ -40149,10 +40149,10 @@
         <v>11</v>
       </c>
       <c r="AK218" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL218" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM218" t="n">
         <v>21</v>
@@ -40161,10 +40161,10 @@
         <v>4.75</v>
       </c>
       <c r="AO218" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP218" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ218" t="n">
         <v>34</v>
@@ -40179,10 +40179,10 @@
         <v>3.75</v>
       </c>
       <c r="AU218" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV218" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW218" t="n">
         <v>251</v>
@@ -40194,7 +40194,7 @@
         <v>15</v>
       </c>
       <c r="AZ218" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA218" t="n">
         <v>41</v>
@@ -40206,7 +40206,7 @@
         <v>81</v>
       </c>
       <c r="BD218" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="219">
@@ -40241,22 +40241,22 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="H219" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I219" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="J219" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="K219" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L219" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M219" t="n">
         <v>1.03</v>
@@ -40283,73 +40283,73 @@
         <v>3.75</v>
       </c>
       <c r="U219" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V219" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W219" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X219" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y219" t="n">
         <v>8.5</v>
       </c>
       <c r="Z219" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA219" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB219" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC219" t="n">
         <v>17</v>
       </c>
       <c r="AD219" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE219" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF219" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI219" t="n">
         <v>34</v>
       </c>
-      <c r="AG219" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH219" t="n">
+      <c r="AJ219" t="n">
         <v>19</v>
       </c>
-      <c r="AI219" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ219" t="n">
-        <v>15</v>
-      </c>
       <c r="AK219" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL219" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM219" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN219" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO219" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AP219" t="n">
         <v>15</v>
       </c>
       <c r="AQ219" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AR219" t="n">
         <v>41</v>
@@ -40361,31 +40361,31 @@
         <v>3.75</v>
       </c>
       <c r="AU219" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV219" t="n">
         <v>41</v>
       </c>
       <c r="AW219" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AX219" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AY219" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ219" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA219" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB219" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC219" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD219" t="n">
         <v>151</v>
@@ -40423,46 +40423,46 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="H220" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I220" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J220" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="K220" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L220" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N220" t="n">
+        <v>21</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P220" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T220" t="n">
         <v>4</v>
-      </c>
-      <c r="M220" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N220" t="n">
-        <v>23</v>
-      </c>
-      <c r="O220" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P220" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q220" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R220" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S220" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T220" t="n">
-        <v>4.33</v>
       </c>
       <c r="U220" t="n">
         <v>1.4</v>
@@ -40480,19 +40480,19 @@
         <v>9</v>
       </c>
       <c r="Z220" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA220" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB220" t="n">
         <v>17</v>
       </c>
       <c r="AC220" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD220" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE220" t="n">
         <v>11</v>
@@ -40504,19 +40504,19 @@
         <v>81</v>
       </c>
       <c r="AH220" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI220" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ220" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK220" t="n">
         <v>41</v>
       </c>
       <c r="AL220" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM220" t="n">
         <v>23</v>
@@ -40525,25 +40525,25 @@
         <v>4.5</v>
       </c>
       <c r="AO220" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AP220" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ220" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR220" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS220" t="n">
         <v>67</v>
       </c>
       <c r="AT220" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU220" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV220" t="n">
         <v>34</v>
@@ -40552,13 +40552,13 @@
         <v>201</v>
       </c>
       <c r="AX220" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY220" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ220" t="n">
         <v>19</v>
-      </c>
-      <c r="AZ220" t="n">
-        <v>21</v>
       </c>
       <c r="BA220" t="n">
         <v>51</v>
@@ -40605,22 +40605,22 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I221" t="n">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="J221" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K221" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L221" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M221" t="n">
         <v>1.01</v>
@@ -40629,91 +40629,91 @@
         <v>26</v>
       </c>
       <c r="O221" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P221" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q221" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R221" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S221" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T221" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U221" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V221" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W221" t="n">
         <v>15</v>
       </c>
       <c r="X221" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y221" t="n">
         <v>9.5</v>
       </c>
       <c r="Z221" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA221" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB221" t="n">
         <v>15</v>
       </c>
       <c r="AC221" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF221" t="n">
         <v>29</v>
       </c>
-      <c r="AD221" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE221" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF221" t="n">
+      <c r="AG221" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH221" t="n">
         <v>26</v>
-      </c>
-      <c r="AG221" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH221" t="n">
-        <v>23</v>
       </c>
       <c r="AI221" t="n">
         <v>34</v>
       </c>
       <c r="AJ221" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK221" t="n">
         <v>51</v>
       </c>
       <c r="AL221" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM221" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN221" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO221" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP221" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ221" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR221" t="n">
         <v>29</v>
@@ -40722,7 +40722,7 @@
         <v>51</v>
       </c>
       <c r="AT221" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU221" t="n">
         <v>7</v>
@@ -40734,16 +40734,16 @@
         <v>201</v>
       </c>
       <c r="AX221" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY221" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ221" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA221" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB221" t="n">
         <v>51</v>
@@ -40752,7 +40752,7 @@
         <v>81</v>
       </c>
       <c r="BD221" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="222">
@@ -40787,16 +40787,16 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H222" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I222" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J222" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K222" t="n">
         <v>2.5</v>
@@ -40808,37 +40808,37 @@
         <v>1.02</v>
       </c>
       <c r="N222" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O222" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P222" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q222" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R222" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S222" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T222" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U222" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V222" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W222" t="n">
         <v>15</v>
       </c>
       <c r="X222" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y222" t="n">
         <v>10</v>
@@ -40847,28 +40847,28 @@
         <v>23</v>
       </c>
       <c r="AA222" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB222" t="n">
         <v>19</v>
       </c>
       <c r="AC222" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD222" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE222" t="n">
         <v>11</v>
       </c>
       <c r="AF222" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG222" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH222" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI222" t="n">
         <v>19</v>
@@ -40892,10 +40892,10 @@
         <v>12</v>
       </c>
       <c r="AP222" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ222" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR222" t="n">
         <v>41</v>
@@ -40904,16 +40904,16 @@
         <v>81</v>
       </c>
       <c r="AT222" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU222" t="n">
         <v>6.5</v>
       </c>
       <c r="AV222" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW222" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AX222" t="n">
         <v>5.5</v>
@@ -40928,7 +40928,7 @@
         <v>41</v>
       </c>
       <c r="BB222" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC222" t="n">
         <v>81</v>
@@ -41697,79 +41697,79 @@
         </is>
       </c>
       <c r="G227" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J227" t="n">
         <v>3.95</v>
       </c>
-      <c r="H227" t="n">
+      <c r="K227" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P227" t="n">
         <v>3.45</v>
       </c>
-      <c r="I227" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J227" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K227" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L227" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="M227" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N227" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O227" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P227" t="n">
-        <v>3.6</v>
-      </c>
       <c r="Q227" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="R227" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S227" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T227" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="U227" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V227" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W227" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X227" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE227" t="n">
         <v>13</v>
-      </c>
-      <c r="X227" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y227" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z227" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA227" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB227" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC227" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD227" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE227" t="n">
-        <v>13.5</v>
       </c>
       <c r="AF227" t="n">
         <v>55</v>
@@ -41778,46 +41778,46 @@
         <v>400</v>
       </c>
       <c r="AH227" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AI227" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AJ227" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK227" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL227" t="n">
         <v>15.5</v>
       </c>
-      <c r="AL227" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AM227" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN227" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AO227" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AP227" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ227" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR227" t="n">
         <v>120</v>
-      </c>
-      <c r="AR227" t="n">
-        <v>150</v>
       </c>
       <c r="AS227" t="n">
         <v>300</v>
       </c>
       <c r="AT227" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="AU227" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV227" t="n">
         <v>55</v>
@@ -41826,19 +41826,19 @@
         <v>51</v>
       </c>
       <c r="AX227" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AY227" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AZ227" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BA227" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BB227" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BC227" t="n">
         <v>200</v>
@@ -41879,73 +41879,73 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="H228" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I228" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J228" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="K228" t="n">
         <v>2.12</v>
       </c>
       <c r="L228" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M228" t="n">
         <v>1.07</v>
       </c>
       <c r="N228" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O228" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P228" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q228" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R228" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S228" t="n">
         <v>1.4</v>
       </c>
       <c r="T228" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="U228" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V228" t="n">
         <v>1.9</v>
       </c>
       <c r="W228" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X228" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y228" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z228" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA228" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB228" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC228" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AD228" t="n">
         <v>6.5</v>
@@ -41960,64 +41960,64 @@
         <v>600</v>
       </c>
       <c r="AH228" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI228" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ228" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK228" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL228" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM228" t="n">
         <v>40</v>
       </c>
       <c r="AN228" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AO228" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AP228" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ228" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR228" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS228" t="n">
         <v>250</v>
       </c>
       <c r="AT228" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AU228" t="n">
         <v>7.3</v>
       </c>
       <c r="AV228" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW228" t="n">
         <v>51</v>
       </c>
       <c r="AX228" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AY228" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ228" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA228" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB228" t="n">
         <v>150</v>
@@ -42061,46 +42061,46 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="H229" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I229" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="J229" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K229" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L229" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M229" t="n">
         <v>1.06</v>
       </c>
       <c r="N229" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="O229" t="n">
         <v>1.3</v>
       </c>
       <c r="P229" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q229" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R229" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S229" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T229" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="U229" t="n">
         <v>1.7</v>
@@ -42109,10 +42109,10 @@
         <v>2.05</v>
       </c>
       <c r="W229" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="X229" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y229" t="n">
         <v>10</v>
@@ -42121,67 +42121,67 @@
         <v>32</v>
       </c>
       <c r="AA229" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB229" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC229" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AD229" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AE229" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF229" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG229" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH229" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AI229" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ229" t="n">
         <v>9.25</v>
       </c>
       <c r="AK229" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL229" t="n">
         <v>20</v>
       </c>
       <c r="AM229" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN229" t="n">
         <v>4.7</v>
       </c>
       <c r="AO229" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP229" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ229" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR229" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS229" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT229" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="AU229" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV229" t="n">
         <v>60</v>
@@ -42190,13 +42190,13 @@
         <v>51</v>
       </c>
       <c r="AX229" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AY229" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AZ229" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA229" t="n">
         <v>55</v>
@@ -42243,127 +42243,127 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H230" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I230" t="n">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="J230" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="K230" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L230" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="M230" t="n">
         <v>1.09</v>
       </c>
       <c r="N230" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="O230" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P230" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="Q230" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="R230" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S230" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T230" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="U230" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V230" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W230" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="X230" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="Y230" t="n">
         <v>8.5</v>
       </c>
       <c r="Z230" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA230" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AB230" t="n">
         <v>35</v>
       </c>
       <c r="AC230" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AD230" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="AE230" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF230" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG230" t="n">
         <v>900</v>
       </c>
       <c r="AH230" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AI230" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ230" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK230" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL230" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AM230" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN230" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AO230" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AP230" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ230" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AR230" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS230" t="n">
         <v>300</v>
       </c>
       <c r="AT230" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="AU230" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AV230" t="n">
         <v>80</v>
@@ -42372,19 +42372,19 @@
         <v>51</v>
       </c>
       <c r="AX230" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AY230" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AZ230" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA230" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB230" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC230" t="n">
         <v>500</v>
@@ -42789,127 +42789,127 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="H233" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I233" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="J233" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K233" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L233" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="M233" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N233" t="n">
-        <v>6.95</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="O233" t="n">
         <v>1.4</v>
       </c>
       <c r="P233" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q233" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R233" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S233" t="n">
         <v>1.47</v>
       </c>
       <c r="T233" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="U233" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="V233" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="W233" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="X233" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y233" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z233" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AA233" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AB233" t="n">
         <v>45</v>
       </c>
       <c r="AC233" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD233" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE233" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF233" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG233" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH233" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="AI233" t="n">
-        <v>10.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ233" t="n">
         <v>9</v>
       </c>
       <c r="AK233" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AL233" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AM233" t="n">
         <v>35</v>
       </c>
       <c r="AN233" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AO233" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AP233" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ233" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AR233" t="n">
         <v>150</v>
       </c>
       <c r="AS233" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT233" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AU233" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV233" t="n">
         <v>70</v>
@@ -42918,16 +42918,16 @@
         <v>51</v>
       </c>
       <c r="AX233" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="AY233" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AZ233" t="n">
         <v>21</v>
       </c>
       <c r="BA233" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="BB233" t="n">
         <v>90</v>
